--- a/_config_data/load_profiles.xlsx
+++ b/_config_data/load_profiles.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All charging load profiles" sheetId="1" r:id="rId1"/>
     <sheet name="UK Power NEtworks (2014)" sheetId="2" r:id="rId2"/>
     <sheet name="Markel et al. (2010)" sheetId="3" r:id="rId3"/>
+    <sheet name="NIC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Source:</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>Future</t>
+  </si>
+  <si>
+    <t>https://www.nic.org.uk/wp-content/uploads/CCS001_CCS0618917350-001_NIC-NIA_Accessible.pdf</t>
   </si>
 </sst>
 </file>
@@ -352,11 +356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91009408"/>
-        <c:axId val="91011328"/>
+        <c:axId val="47744512"/>
+        <c:axId val="47746048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91009408"/>
+        <c:axId val="47744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91011328"/>
+        <c:crossAx val="47746048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -373,7 +377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91011328"/>
+        <c:axId val="47746048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +393,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91009408"/>
+        <c:crossAx val="47744512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -664,11 +668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125647104"/>
-        <c:axId val="149561728"/>
+        <c:axId val="48054272"/>
+        <c:axId val="48055808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125647104"/>
+        <c:axId val="48054272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +681,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149561728"/>
+        <c:crossAx val="48055808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149561728"/>
+        <c:axId val="48055808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +705,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125647104"/>
+        <c:crossAx val="48054272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -766,7 +770,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -881,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54069504"/>
-        <c:axId val="54104064"/>
+        <c:axId val="49649536"/>
+        <c:axId val="49651072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54069504"/>
+        <c:axId val="49649536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +897,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54104064"/>
+        <c:crossAx val="49651072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54104064"/>
+        <c:axId val="49651072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,14 +921,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54069504"/>
+        <c:crossAx val="49649536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -983,7 +985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1098,11 +1099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71289472"/>
-        <c:axId val="86049536"/>
+        <c:axId val="50924928"/>
+        <c:axId val="50926720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71289472"/>
+        <c:axId val="50924928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1112,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86049536"/>
+        <c:crossAx val="50926720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86049536"/>
+        <c:axId val="50926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1136,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71289472"/>
+        <c:crossAx val="50924928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1192,7 +1192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1300,11 +1299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71269376"/>
-        <c:axId val="71279744"/>
+        <c:axId val="50949120"/>
+        <c:axId val="50967296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71269376"/>
+        <c:axId val="50949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1312,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71279744"/>
+        <c:crossAx val="50967296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71279744"/>
+        <c:axId val="50967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1336,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71269376"/>
+        <c:crossAx val="50949120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1473,11 +1472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102556800"/>
-        <c:axId val="102558336"/>
+        <c:axId val="51990912"/>
+        <c:axId val="51992448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102556800"/>
+        <c:axId val="51990912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102558336"/>
+        <c:crossAx val="51992448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102558336"/>
+        <c:axId val="51992448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102556800"/>
+        <c:crossAx val="51990912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,7 +1564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1691,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124823808"/>
-        <c:axId val="124936192"/>
+        <c:axId val="52008064"/>
+        <c:axId val="52009600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124823808"/>
+        <c:axId val="52008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1702,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124936192"/>
+        <c:crossAx val="52009600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124936192"/>
+        <c:axId val="52009600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1726,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="124823808"/>
+        <c:crossAx val="52008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2151,6 +2149,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6772275" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2440,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -3405,7 +3463,7 @@
         <v>0.12</v>
       </c>
       <c r="AA18">
-        <f t="shared" ref="AA15:AA18" si="1">SUM(B18:Y18)</f>
+        <f t="shared" ref="AA18" si="1">SUM(B18:Y18)</f>
         <v>3.6200000000000006</v>
       </c>
     </row>
@@ -3508,6 +3566,27 @@
       <c r="Y19">
         <f t="shared" si="2"/>
         <v>3.3149171270718223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
